--- a/TABLAS_CODER.xlsx
+++ b/TABLAS_CODER.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\CoderHouse\Curso SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFE125-7471-4F5E-AB45-AF77C1B9ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987B823E-6EB9-4A35-B391-29395E3D386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3202AE3C-1050-4120-B892-3A4A593D0DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{3202AE3C-1050-4120-B892-3A4A593D0DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Comercio" sheetId="1" r:id="rId1"/>
     <sheet name="Vehiculos" sheetId="2" r:id="rId2"/>
     <sheet name="Curso" sheetId="3" r:id="rId3"/>
+    <sheet name="TRIGGERS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="144">
   <si>
     <t>Tabla</t>
   </si>
@@ -236,9 +237,6 @@
     <t>ID_ACTA</t>
   </si>
   <si>
-    <t>NUMEROS DE ACTAS</t>
-  </si>
-  <si>
     <t>ID_CODIGO</t>
   </si>
   <si>
@@ -372,6 +370,96 @@
   </si>
   <si>
     <t>NUMERO_ORDEN</t>
+  </si>
+  <si>
+    <t>RUBROS_COMERCIO</t>
+  </si>
+  <si>
+    <t>ACTA_INSPECCION</t>
+  </si>
+  <si>
+    <t>ACTA_CONSTATACION</t>
+  </si>
+  <si>
+    <t>ACTA_CLAUSURA</t>
+  </si>
+  <si>
+    <t>ACTA_COMISO</t>
+  </si>
+  <si>
+    <t>ACTA_SECUESTRO_INTERVENCION</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_ALUMNO_NEW</t>
+  </si>
+  <si>
+    <t>EVENTO ACTIVADO CON UPGRADE E INSERT</t>
+  </si>
+  <si>
+    <t>EVENTO</t>
+  </si>
+  <si>
+    <t>ID_CRUSO</t>
+  </si>
+  <si>
+    <t>ID_NOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO </t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>FECHA_HORA</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_ALUMNO_OLD</t>
+  </si>
+  <si>
+    <t>EVENTO ACTIVADO CON UPGRADE E DELETE</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_COMERCIO_OLD</t>
+  </si>
+  <si>
+    <t>EXPERIDENTE_HABILITACION</t>
+  </si>
+  <si>
+    <t>NUMERO_CUENTA</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_COMERCIO_NEW</t>
+  </si>
+  <si>
+    <t>USER()</t>
+  </si>
+  <si>
+    <t>NOW()</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_DENUNCIA_NEW</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_DENUNCIA_OLD</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_VEHICULOS_NEW</t>
+  </si>
+  <si>
+    <t>NUMERO_HABILITACION</t>
+  </si>
+  <si>
+    <t>LOG EVENTO_VEHICULOS_OLD</t>
   </si>
 </sst>
 </file>
@@ -537,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +699,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46285E16-1118-4829-B582-C35FED249382}">
-  <dimension ref="B3:I170"/>
+  <dimension ref="B3:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A52" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1138,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>10</v>
@@ -1054,451 +1152,423 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="15">
+        <v>50</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="C21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="15">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="15">
+        <v>100</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4">
         <v>50</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="F41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="15">
-        <v>100</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="4">
-        <v>50</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3">
-        <v>20</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="4" t="s">
-        <v>55</v>
+      <c r="B42" s="7"/>
+      <c r="C42" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>14</v>
@@ -1509,299 +1579,299 @@
       <c r="F42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3">
         <v>50</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="12" t="s">
+      <c r="D45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C48" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H50" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="4" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="3" t="s">
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3">
         <v>50</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="4" t="s">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3">
         <v>150</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12" t="s">
+      <c r="D55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
@@ -1810,56 +1880,62 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="10"/>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
+      <c r="B65" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C65" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
@@ -1871,525 +1947,603 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="12" t="s">
+      <c r="D67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="20" t="s">
+      <c r="H67" s="13"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3">
+        <v>20</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="3">
+        <v>20</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3">
+        <v>20</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="D79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3">
         <v>100</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="F79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="12">
+        <v>20</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+    </row>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C155" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22"/>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C166" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="12">
+      <c r="D166" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="3">
+        <v>100</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
+    </row>
+    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22"/>
+    </row>
+    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C174" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="3">
+        <v>100</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="3">
         <v>50</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-    </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-    </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C150" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H150" s="4" t="s">
+      <c r="G175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C151" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C152" s="4"/>
-      <c r="D152" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="153" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C157" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
-    </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="22"/>
-      <c r="I158" s="22"/>
-    </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C161" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="3">
-        <v>100</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C165" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
-    </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="22"/>
-      <c r="I166" s="22"/>
-    </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C169" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="3">
-        <v>100</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="3">
-        <v>50</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I170" s="3"/>
+      <c r="I175" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D166:I166"/>
+    <mergeCell ref="D171:I171"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="D146:I146"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D157:I157"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="D151:I151"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="D163:I163"/>
     <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C60:H60"/>
     <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="D170:I170"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C47:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86FB9CF-469B-42DE-8C12-1C66000816B3}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2586,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2463,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2657,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2538,7 +2692,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2579,12 +2733,12 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>14</v>
@@ -2614,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2658,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>35</v>
@@ -2694,7 +2848,9 @@
       <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -2748,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2905,7 +3061,7 @@
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -2924,7 +3080,7 @@
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>14</v>
@@ -2943,7 +3099,7 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>31</v>
@@ -2974,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED96C696-6072-47ED-9196-AA56DC22CF84}">
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,283 +3258,283 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="H10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12">
         <v>50</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>130</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12">
         <v>50</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>10</v>
@@ -3390,49 +3546,51 @@
       <c r="G26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="B27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>77</v>
@@ -3441,132 +3599,124 @@
         <v>10</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4">
-        <v>50</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>14</v>
@@ -3580,18 +3730,20 @@
       <c r="G37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
+      <c r="B38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="4">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>5</v>
@@ -3599,297 +3751,1824 @@
       <c r="G38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="3">
+        <v>121</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4">
         <v>20</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4">
+        <v>130</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="D43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+      <c r="H48" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="15" t="s">
+      <c r="C49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="H57" s="10">
         <v>0</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="C58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="16"/>
+      <c r="H58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C53:H53"/>
     <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B228599-5185-457D-9A79-06B62A22BA10}">
+  <dimension ref="B1:H110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:H102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="30">
+        <v>50</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="30">
+        <v>50</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="30">
+        <v>50</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="30">
+        <v>50</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="30">
+        <v>50</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="30">
+        <v>130</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="30">
+        <v>50</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="30">
+        <v>50</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30">
+        <v>50</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="30">
+        <v>50</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="30">
+        <v>50</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="30">
+        <v>50</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="30">
+        <v>130</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="30">
+        <v>50</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="30">
+        <v>50</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="30">
+        <v>50</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="30">
+        <v>50</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="30">
+        <v>20</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="30">
+        <v>20</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="30">
+        <v>50</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="30">
+        <v>50</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="29"/>
+      <c r="C52" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="29"/>
+      <c r="C53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="30">
+        <v>50</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="29"/>
+      <c r="C54" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="30">
+        <v>50</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="30">
+        <v>20</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="29"/>
+      <c r="C56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="30">
+        <v>20</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="30">
+        <v>50</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="30">
+        <v>50</v>
+      </c>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="30">
+        <v>50</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="29"/>
+      <c r="C68" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="30">
+        <v>50</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="29"/>
+      <c r="C70" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="29"/>
+      <c r="C71" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="30">
+        <v>50</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="17"/>
+      <c r="C72" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="30">
+        <v>50</v>
+      </c>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="29"/>
+      <c r="C80" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="31"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="29"/>
+      <c r="C81" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="30">
+        <v>50</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="29"/>
+      <c r="C82" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="30">
+        <v>50</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="31"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="29"/>
+      <c r="C83" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="29"/>
+      <c r="C84" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="31"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="29"/>
+      <c r="C85" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="30">
+        <v>50</v>
+      </c>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="17"/>
+      <c r="C86" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="26"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="29"/>
+      <c r="C92" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="30">
+        <v>50</v>
+      </c>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="31"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="29"/>
+      <c r="C94" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="30">
+        <v>50</v>
+      </c>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="31"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="29"/>
+      <c r="C96" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="30">
+        <v>50</v>
+      </c>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="31"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="29"/>
+      <c r="C97" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="30">
+        <v>50</v>
+      </c>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="17"/>
+      <c r="C98" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="26"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="29"/>
+      <c r="C104" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="30">
+        <v>50</v>
+      </c>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="31"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="29"/>
+      <c r="C105" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="31"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="31"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="29"/>
+      <c r="C107" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="30">
+        <v>50</v>
+      </c>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="31"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="29"/>
+      <c r="C108" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="30">
+        <v>50</v>
+      </c>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="31"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="29"/>
+      <c r="C109" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="30">
+        <v>50</v>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="17"/>
+      <c r="C110" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>